--- a/src/test/resource/VwoLoginData.xlsx
+++ b/src/test/resource/VwoLoginData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -32,18 +32,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>arun</t>
-  </si>
-  <si>
-    <t>arun123</t>
-  </si>
-  <si>
-    <t>shiv</t>
-  </si>
-  <si>
-    <t>shiv123</t>
-  </si>
-  <si>
     <t>chetan</t>
   </si>
   <si>
@@ -86,16 +74,19 @@
     <t>jivan123</t>
   </si>
   <si>
-    <t>contact+atb5x@thetestingacademy.com</t>
-  </si>
-  <si>
-    <t>ATBx@1234</t>
-  </si>
-  <si>
     <t>pooja15@gmail.com</t>
   </si>
   <si>
-    <t>Chavan@1997</t>
+    <t>shivrathd@gmail.coom</t>
+  </si>
+  <si>
+    <t>shiv@2021</t>
+  </si>
+  <si>
+    <t>Pooja@123</t>
+  </si>
+  <si>
+    <t>poojachavan04@gmailcom</t>
   </si>
 </sst>
 </file>
@@ -424,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,98 +437,92 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
